--- a/biology/Médecine/Vygon/Vygon.xlsx
+++ b/biology/Médecine/Vygon/Vygon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Vygon est une entreprise créée en 1962 par Pierre Simonet, qui conçoit, fabrique, conditionne, stérilise et commercialise des dispositifs médicaux de haute technologie à usage unique, à destination des professionnels de santé (hospitaliers et libéraux). 
-Avec 2 557 collaborateurs au travers de 11 usines dans le monde, produisant 210 millions de dispositifs commercialisés par 27 filiales et 308 distributeurs vers 120 pays pour répondre aux besoins de plus de 4 000 clients[3], le groupe réalise un chiffre d'affaires de 374,1 millions d'euros en 2022[3].
+Avec 2 557 collaborateurs au travers de 11 usines dans le monde, produisant 210 millions de dispositifs commercialisés par 27 filiales et 308 distributeurs vers 120 pays pour répondre aux besoins de plus de 4 000 clients, le groupe réalise un chiffre d'affaires de 374,1 millions d'euros en 2022.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le siège social de Vygon[4] est situé en France, à Écouen, dans la banlieue nord de Paris.
-Dans les années 1960-70, Vygon s’est implanté en Europe. D’abord en Allemagne avec la création d’une filiale et l’ouverture d’une usine à Aix-la-Chapelle, puis en Belgique avec l’ouverture de l’usine Dimequip à Frameries. Vygon poursuit sa croissance avec la création de filiales au Royaume-Uni, en Belgique, en Espagne, aux Pays-Bas et en Irlande[3]. 
-La société continue à se développer dans les années 1980-90 avec la création de nouvelles filiales et/ou d’usines aux États-Unis, au Portugal, en Inde, en Bulgarie, en Colombie, en Uruguay et en Suède[3].
-Dans les années 2000, Vygon s'implante en Italie, en République tchèque, en Pologne, au Danemark, aux Etats-Unis et ouvre un bureau à Dubaï[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siège social de Vygon est situé en France, à Écouen, dans la banlieue nord de Paris.
+Dans les années 1960-70, Vygon s’est implanté en Europe. D’abord en Allemagne avec la création d’une filiale et l’ouverture d’une usine à Aix-la-Chapelle, puis en Belgique avec l’ouverture de l’usine Dimequip à Frameries. Vygon poursuit sa croissance avec la création de filiales au Royaume-Uni, en Belgique, en Espagne, aux Pays-Bas et en Irlande. 
+La société continue à se développer dans les années 1980-90 avec la création de nouvelles filiales et/ou d’usines aux États-Unis, au Portugal, en Inde, en Bulgarie, en Colombie, en Uruguay et en Suède.
+Dans les années 2000, Vygon s'implante en Italie, en République tchèque, en Pologne, au Danemark, aux Etats-Unis et ouvre un bureau à Dubaï.
 Puis, dans les années 2010, la Norvège, la Finlande et Singapour viennent s'ajouter aux filiales présentes. 
 En 2014, le groupe acquiert la société française Medwin, basée aux Aires dans le département de l’Hérault, spécialisée dans la nutrition entérale. 
 Vygon développe une nouvelle expertise sur le marché cardiovasculaire grâce à l'acquisition de la société Perouse Medical en 2015 et crée une nouvelle filiale en Turquie.
@@ -556,7 +570,9 @@
           <t>Spécialités cliniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Figurant parmi les leaders mondiaux, Vygon propose une large gamme de produits dans plusieurs spécialités cliniques :
 Néonatalogie
